--- a/tugas_normalisasi.xlsx
+++ b/tugas_normalisasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Budi Luhur\Semester 6\PT Hendevane Indonesia\Database MySQL\tugas 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA7062-A5B7-499A-9AD6-F941D8D4BC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8945814C-F181-4120-9158-30EB2BCF51CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96DCD083-D29A-496B-9799-3FD385EFBDA7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="63">
   <si>
     <t>Latihan Normalisasi Database</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>id_kota_tugas</t>
+  </si>
+  <si>
+    <t>tabel kesatuan</t>
+  </si>
+  <si>
+    <t>id_kesatuan</t>
+  </si>
+  <si>
+    <t>kesatuan</t>
   </si>
 </sst>
 </file>
@@ -234,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -266,11 +275,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,9 +327,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -292,14 +335,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E7619D-5121-4492-9BF4-B2A23909B1F4}">
   <dimension ref="C3:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -639,18 +694,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
@@ -1263,36 +1318,36 @@
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="I29" s="10" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -1315,19 +1370,19 @@
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>1</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="2">
@@ -1350,19 +1405,19 @@
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I32" s="2">
@@ -1385,19 +1440,19 @@
       </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>3</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I33" s="2">
@@ -1420,19 +1475,19 @@
       </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>4</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I34" s="2">
@@ -1455,19 +1510,19 @@
       </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>5</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I35" s="2">
@@ -1575,33 +1630,37 @@
       </c>
     </row>
     <row r="43" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="I43" s="10" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="I43" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="M43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="6" t="s">
         <v>53</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -1613,21 +1672,27 @@
       <c r="K44" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>1</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="8" t="s">
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -1639,21 +1704,27 @@
       <c r="K45" s="3">
         <v>39452</v>
       </c>
+      <c r="M45" s="5">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>2</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -1665,21 +1736,27 @@
       <c r="K46" s="3">
         <v>40653</v>
       </c>
+      <c r="M46" s="5">
+        <v>2</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>3</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="7">
+        <v>2</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I47" s="2" t="s">
@@ -1691,21 +1768,27 @@
       <c r="K47" s="3">
         <v>42003</v>
       </c>
+      <c r="M47" s="5">
+        <v>3</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="48" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>4</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="7">
+        <v>3</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -1719,19 +1802,19 @@
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>5</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="7">
+        <v>3</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -1783,13 +1866,13 @@
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -1809,10 +1892,10 @@
       <c r="D54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>1</v>
       </c>
-      <c r="F54" s="11"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
@@ -1821,10 +1904,10 @@
       <c r="D55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>2</v>
       </c>
-      <c r="F55" s="11"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" s="2">
@@ -1833,10 +1916,10 @@
       <c r="D56" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>3</v>
       </c>
-      <c r="F56" s="11"/>
+      <c r="F56" s="8"/>
       <c r="I56" s="9" t="s">
         <v>58</v>
       </c>
@@ -1850,11 +1933,11 @@
       <c r="D57" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>4</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="I57" s="5" t="s">
+      <c r="F57" s="8"/>
+      <c r="I57" s="4" t="s">
         <v>59</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -1871,11 +1954,11 @@
       <c r="D58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>3</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="I58" s="6">
+      <c r="F58" s="8"/>
+      <c r="I58" s="5">
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
@@ -1892,11 +1975,11 @@
       <c r="D59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>5</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="I59" s="6">
+      <c r="F59" s="8"/>
+      <c r="I59" s="5">
         <v>2</v>
       </c>
       <c r="J59" s="2" t="s">
@@ -1913,11 +1996,11 @@
       <c r="D60" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>3</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="I60" s="6">
+      <c r="F60" s="8"/>
+      <c r="I60" s="5">
         <v>3</v>
       </c>
       <c r="J60" s="2" t="s">
@@ -1934,11 +2017,11 @@
       <c r="D61" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>6</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="I61" s="6">
+      <c r="F61" s="8"/>
+      <c r="I61" s="5">
         <v>4</v>
       </c>
       <c r="J61" s="2" t="s">
@@ -1955,11 +2038,11 @@
       <c r="D62" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>7</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="I62" s="6">
+      <c r="F62" s="8"/>
+      <c r="I62" s="5">
         <v>5</v>
       </c>
       <c r="J62" s="2" t="s">
@@ -1970,7 +2053,7 @@
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="I63" s="6">
+      <c r="I63" s="5">
         <v>6</v>
       </c>
       <c r="J63" s="2" t="s">
@@ -1981,7 +2064,7 @@
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="I64" s="6">
+      <c r="I64" s="5">
         <v>7</v>
       </c>
       <c r="J64" s="2" t="s">
@@ -1992,7 +2075,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="C3:L3"/>
@@ -2000,6 +2083,7 @@
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="I43:K43"/>
+    <mergeCell ref="M43:N43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
